--- a/data/trans_orig/P70D_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70D_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D663FD2F-FA02-4453-B7C7-80B7EA25806A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E031D76-9860-4E87-8E4B-27843C428D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{762974E6-3749-4C7E-8F17-56D61A0BA23A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9F66F1DA-6433-4086-A0B8-DE70B338C1CF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -77,25 +77,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>15,97%</t>
+    <t>17,1%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
   </si>
   <si>
     <t>5,64%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>95,27%</t>
   </si>
   <si>
-    <t>84,03%</t>
+    <t>82,9%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -113,19 +113,19 @@
     <t>93,38%</t>
   </si>
   <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
   </si>
   <si>
     <t>94,36%</t>
   </si>
   <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>5,18%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
   </si>
   <si>
     <t>6,01%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
   </si>
   <si>
     <t>94,82%</t>
   </si>
   <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
   </si>
   <si>
     <t>92,93%</t>
   </si>
   <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
   </si>
   <si>
     <t>93,99%</t>
   </si>
   <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -194,55 +194,55 @@
     <t>3,18%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
   </si>
   <si>
     <t>6,16%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
   </si>
   <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
   </si>
   <si>
     <t>96,82%</t>
   </si>
   <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
   <si>
     <t>93,84%</t>
   </si>
   <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
   </si>
   <si>
     <t>95,59%</t>
   </si>
   <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -251,49 +251,55 @@
     <t>2,91%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
   </si>
   <si>
     <t>2,34%</t>
   </si>
   <si>
-    <t>4,33%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
   </si>
   <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
   </si>
   <si>
     <t>97,09%</t>
   </si>
   <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
   </si>
   <si>
     <t>97,66%</t>
   </si>
   <si>
-    <t>95,67%</t>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
   </si>
   <si>
     <t>97,36%</t>
   </si>
   <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -302,109 +308,103 @@
     <t>5,68%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
+    <t>3,61%</t>
   </si>
   <si>
     <t>8,43%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
   </si>
   <si>
     <t>94,32%</t>
   </si>
   <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
+    <t>96,39%</t>
   </si>
   <si>
     <t>91,57%</t>
   </si>
   <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
   </si>
   <si>
     <t>92,99%</t>
   </si>
   <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
   </si>
   <si>
     <t>6,18%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
   </si>
   <si>
     <t>95,84%</t>
   </si>
   <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
   </si>
   <si>
     <t>93,82%</t>
   </si>
   <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
   </si>
   <si>
     <t>94,93%</t>
   </si>
   <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9818BF11-C814-47B0-B792-47E977337D2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC69A4D1-A037-45E5-862F-643FEDAA656E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1426,10 +1426,10 @@
         <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -1438,13 +1438,13 @@
         <v>18293</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1459,13 +1459,13 @@
         <v>356511</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>412</v>
@@ -1474,13 +1474,13 @@
         <v>317681</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>732</v>
@@ -1489,13 +1489,13 @@
         <v>674193</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1551,7 +1551,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1563,13 +1563,13 @@
         <v>28120</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -1578,13 +1578,13 @@
         <v>38932</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
@@ -1593,13 +1593,13 @@
         <v>67053</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,10 +1614,10 @@
         <v>466836</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>98</v>

--- a/data/trans_orig/P70D_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70D_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E031D76-9860-4E87-8E4B-27843C428D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BEA923D-E75E-463D-B2BF-FF15F80504CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9F66F1DA-6433-4086-A0B8-DE70B338C1CF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0F97963F-2B28-491A-834C-988091A6BBCA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Población con capacidad laboral &lt;=6 (Likert 0 a 10) en 2023 (Tasa respuesta: 42,41%)</t>
   </si>
@@ -65,346 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
   </si>
   <si>
     <t>92,93%</t>
   </si>
   <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
   </si>
   <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
   </si>
   <si>
     <t>95,59%</t>
   </si>
   <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
+    <t>95,47%</t>
   </si>
   <si>
     <t>94,56%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
+    <t>96,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC69A4D1-A037-45E5-862F-643FEDAA656E}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950C29FE-F1AE-4209-91AE-AEC08F423DDB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -937,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>2302</v>
+        <v>16501</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -952,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>2948</v>
+        <v>17408</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -967,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="N4" s="7">
-        <v>5250</v>
+        <v>33910</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -988,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>47</v>
+        <v>318</v>
       </c>
       <c r="D5" s="7">
-        <v>46333</v>
+        <v>313704</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1003,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>67</v>
+        <v>386</v>
       </c>
       <c r="I5" s="7">
-        <v>41580</v>
+        <v>239270</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1018,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>114</v>
+        <v>704</v>
       </c>
       <c r="N5" s="7">
-        <v>87913</v>
+        <v>552974</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1039,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>49</v>
+        <v>336</v>
       </c>
       <c r="D6" s="7">
-        <v>48635</v>
+        <v>330205</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1054,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>70</v>
+        <v>410</v>
       </c>
       <c r="I6" s="7">
-        <v>44528</v>
+        <v>256678</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1069,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>119</v>
+        <v>746</v>
       </c>
       <c r="N6" s="7">
-        <v>93163</v>
+        <v>586884</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1092,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>15123</v>
+        <v>18776</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1107,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I7" s="7">
-        <v>16172</v>
+        <v>24652</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1122,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="N7" s="7">
-        <v>31295</v>
+        <v>43427</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1143,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>271</v>
+        <v>506</v>
       </c>
       <c r="D8" s="7">
-        <v>276668</v>
+        <v>784980</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1158,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>319</v>
+        <v>560</v>
       </c>
       <c r="I8" s="7">
-        <v>212565</v>
+        <v>376737</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1173,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>590</v>
+        <v>1066</v>
       </c>
       <c r="N8" s="7">
-        <v>489233</v>
+        <v>1161718</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1194,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>287</v>
+        <v>528</v>
       </c>
       <c r="D9" s="7">
-        <v>291791</v>
+        <v>803756</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1209,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>340</v>
+        <v>598</v>
       </c>
       <c r="I9" s="7">
-        <v>228737</v>
+        <v>401389</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1224,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>627</v>
+        <v>1126</v>
       </c>
       <c r="N9" s="7">
-        <v>520528</v>
+        <v>1205145</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1247,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>20049</v>
+        <v>10149</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1262,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>27305</v>
+        <v>6966</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1277,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="N10" s="7">
-        <v>47354</v>
+        <v>17115</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1298,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>506</v>
+        <v>320</v>
       </c>
       <c r="D11" s="7">
-        <v>610531</v>
+        <v>345894</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1313,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>560</v>
+        <v>412</v>
       </c>
       <c r="I11" s="7">
-        <v>415748</v>
+        <v>317379</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1328,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1066</v>
+        <v>732</v>
       </c>
       <c r="N11" s="7">
-        <v>1026279</v>
+        <v>663273</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1349,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>528</v>
+        <v>330</v>
       </c>
       <c r="D12" s="7">
-        <v>630580</v>
+        <v>356043</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1364,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>598</v>
+        <v>424</v>
       </c>
       <c r="I12" s="7">
-        <v>443053</v>
+        <v>324345</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1379,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1126</v>
+        <v>754</v>
       </c>
       <c r="N12" s="7">
-        <v>1073633</v>
+        <v>680388</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1402,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7">
-        <v>10687</v>
+        <v>26704</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1417,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I13" s="7">
-        <v>7607</v>
+        <v>33983</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1432,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="N13" s="7">
-        <v>18293</v>
+        <v>60686</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1453,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>320</v>
+        <v>453</v>
       </c>
       <c r="D14" s="7">
-        <v>356511</v>
+        <v>445499</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1468,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>412</v>
+        <v>556</v>
       </c>
       <c r="I14" s="7">
-        <v>317681</v>
+        <v>446477</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1483,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>732</v>
+        <v>1009</v>
       </c>
       <c r="N14" s="7">
-        <v>674193</v>
+        <v>891977</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1504,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>330</v>
+        <v>479</v>
       </c>
       <c r="D15" s="7">
-        <v>367198</v>
+        <v>472203</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1519,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>424</v>
+        <v>603</v>
       </c>
       <c r="I15" s="7">
-        <v>325288</v>
+        <v>480460</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1534,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>754</v>
+        <v>1082</v>
       </c>
       <c r="N15" s="7">
-        <v>692486</v>
+        <v>952663</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1551,31 +1500,31 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="D16" s="7">
-        <v>28120</v>
+        <v>72129</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="H16" s="7">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="I16" s="7">
-        <v>38932</v>
+        <v>83009</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -1587,10 +1536,10 @@
         <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>73</v>
+        <v>197</v>
       </c>
       <c r="N16" s="7">
-        <v>67053</v>
+        <v>155138</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>94</v>
@@ -1608,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>453</v>
+        <v>1597</v>
       </c>
       <c r="D17" s="7">
-        <v>466836</v>
+        <v>1890079</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>556</v>
+        <v>1914</v>
       </c>
       <c r="I17" s="7">
-        <v>422956</v>
+        <v>1379863</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>1009</v>
+        <v>3511</v>
       </c>
       <c r="N17" s="7">
-        <v>889791</v>
+        <v>3269942</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>479</v>
+        <v>1673</v>
       </c>
       <c r="D18" s="7">
-        <v>494956</v>
+        <v>1962208</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1674,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>603</v>
+        <v>2035</v>
       </c>
       <c r="I18" s="7">
-        <v>461888</v>
+        <v>1462872</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1689,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1082</v>
+        <v>3708</v>
       </c>
       <c r="N18" s="7">
-        <v>956844</v>
+        <v>3425080</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1705,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>76</v>
-      </c>
-      <c r="D19" s="7">
-        <v>76281</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>121</v>
-      </c>
-      <c r="I19" s="7">
-        <v>92964</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>197</v>
-      </c>
-      <c r="N19" s="7">
-        <v>169246</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1597</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1756879</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1914</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1410530</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3511</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3167408</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1673</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1833160</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2035</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1503494</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3708</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3336654</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
